--- a/GFI_N.xlsx
+++ b/GFI_N.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\19.06.2024\Daily Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rohit Ingole_WFH\Daily Market Updates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{141ADE3F-3043-4508-AFA6-5B7CCB35EBDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1821,7 +1822,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0.00%"/>
     <numFmt numFmtId="165" formatCode="##0"/>
@@ -1987,35 +1988,35 @@
     </xf>
   </cellXfs>
   <cellStyles count="29">
-    <cellStyle name="bolddate" xfId="25"/>
-    <cellStyle name="boldleftdate" xfId="27"/>
-    <cellStyle name="boldnoDecimalDigits" xfId="10"/>
-    <cellStyle name="boldpercentage" xfId="6"/>
-    <cellStyle name="boldrightdate" xfId="26"/>
-    <cellStyle name="boldthreeDecimalDigits" xfId="12"/>
-    <cellStyle name="boldtwoDecimalDigits" xfId="11"/>
-    <cellStyle name="date" xfId="22"/>
-    <cellStyle name="defaultsheetstyle" xfId="28"/>
-    <cellStyle name="disclaimer" xfId="21"/>
-    <cellStyle name="leftdate" xfId="24"/>
-    <cellStyle name="leftplainBoldText" xfId="19"/>
-    <cellStyle name="leftplainText" xfId="17"/>
-    <cellStyle name="noDecimalDigits" xfId="7"/>
+    <cellStyle name="bolddate" xfId="25" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="boldleftdate" xfId="27" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="boldnoDecimalDigits" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="boldpercentage" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="boldrightdate" xfId="26" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="boldthreeDecimalDigits" xfId="12" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="boldtwoDecimalDigits" xfId="11" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="date" xfId="22" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="defaultsheetstyle" xfId="28" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="disclaimer" xfId="21" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="leftdate" xfId="24" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="leftplainBoldText" xfId="19" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="leftplainText" xfId="17" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="noDecimalDigits" xfId="7" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="percentage" xfId="5"/>
-    <cellStyle name="plainBoldText" xfId="14"/>
-    <cellStyle name="plainBoldValues" xfId="16"/>
-    <cellStyle name="plainText" xfId="13"/>
-    <cellStyle name="plainValues" xfId="15"/>
-    <cellStyle name="rightdate" xfId="23"/>
-    <cellStyle name="rightplainBoldText" xfId="20"/>
-    <cellStyle name="rightplainText" xfId="18"/>
-    <cellStyle name="sheetReportTitle" xfId="2"/>
-    <cellStyle name="sheetTitle" xfId="1"/>
-    <cellStyle name="tableHeader" xfId="3"/>
-    <cellStyle name="tablesubHeader" xfId="4"/>
-    <cellStyle name="threeDecimalDigits" xfId="9"/>
-    <cellStyle name="twoDecimalDigits" xfId="8"/>
+    <cellStyle name="percentage" xfId="5" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="plainBoldText" xfId="14" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="plainBoldValues" xfId="16" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="plainText" xfId="13" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="plainValues" xfId="15" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="rightdate" xfId="23" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="rightplainBoldText" xfId="20" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="rightplainText" xfId="18" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="sheetReportTitle" xfId="2" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="sheetTitle" xfId="1" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="tableHeader" xfId="3" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="tablesubHeader" xfId="4" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="threeDecimalDigits" xfId="9" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="twoDecimalDigits" xfId="8" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2292,7 +2293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2499,7 +2500,7 @@
         <v>25</v>
       </c>
       <c r="R3" s="5">
-        <v>78.080001831054687</v>
+        <v>78.080001831054688</v>
       </c>
       <c r="S3" s="5">
         <v>77.349998474121094</v>
@@ -2794,7 +2795,7 @@
         <v>25</v>
       </c>
       <c r="R8" s="5">
-        <v>90.080001831054687</v>
+        <v>90.080001831054688</v>
       </c>
       <c r="S8" s="5">
         <v>89.599998474121094</v>
@@ -5098,7 +5099,7 @@
         <v>111.87000274658203</v>
       </c>
       <c r="S47" s="5">
-        <v>104.97000122070312</v>
+        <v>104.97000122070313</v>
       </c>
     </row>
     <row r="48" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -6216,7 +6217,7 @@
         <v>25</v>
       </c>
       <c r="R66" s="5">
-        <v>75.550003051757812</v>
+        <v>75.550003051757813</v>
       </c>
       <c r="S66" s="5">
         <v>72.019996643066406</v>
@@ -6570,7 +6571,7 @@
         <v>25</v>
       </c>
       <c r="R72" s="5">
-        <v>53.360000610351562</v>
+        <v>53.360000610351563</v>
       </c>
       <c r="S72" s="5">
         <v>51.150001525878906</v>
@@ -6691,7 +6692,7 @@
         <v>29.209999084472656</v>
       </c>
       <c r="S74" s="5">
-        <v>28.610000610351562</v>
+        <v>28.610000610351563</v>
       </c>
     </row>
     <row r="75" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -7871,7 +7872,7 @@
         <v>109.51100158691406</v>
       </c>
       <c r="S94" s="5">
-        <v>104.02999877929687</v>
+        <v>104.02999877929688</v>
       </c>
     </row>
     <row r="95" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -8872,7 +8873,7 @@
         <v>106.23000335693359</v>
       </c>
       <c r="S111" s="5">
-        <v>105.77999877929687</v>
+        <v>105.77999877929688</v>
       </c>
     </row>
     <row r="112" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -8985,7 +8986,7 @@
         <v>277</v>
       </c>
       <c r="R113" s="5">
-        <v>110.83999633789062</v>
+        <v>110.83999633789063</v>
       </c>
       <c r="S113" s="5">
         <v>110.83000183105469</v>
@@ -11012,7 +11013,7 @@
         <v>83</v>
       </c>
       <c r="F148" s="5">
-        <v>4.3990402221679687</v>
+        <v>4.3990402221679688</v>
       </c>
       <c r="G148" s="6" t="s">
         <v>0</v>
@@ -11169,7 +11170,7 @@
         <v>134.24834432220459</v>
       </c>
       <c r="S150" s="5">
-        <v>127.59005737304687</v>
+        <v>127.59005737304688</v>
       </c>
     </row>
     <row r="151" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -12049,10 +12050,10 @@
         <v>277</v>
       </c>
       <c r="R165" s="5">
-        <v>88.389999389648437</v>
+        <v>88.389999389648438</v>
       </c>
       <c r="S165" s="5">
-        <v>86.860000610351562</v>
+        <v>86.860000610351563</v>
       </c>
     </row>
     <row r="166" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13934,7 +13935,7 @@
         <v>46.530101776123047</v>
       </c>
       <c r="S197" s="5">
-        <v>45.610000610351562</v>
+        <v>45.610000610351563</v>
       </c>
     </row>
     <row r="198" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -13954,7 +13955,7 @@
         <v>32</v>
       </c>
       <c r="F198" s="5">
-        <v>4.6043167114257812</v>
+        <v>4.6043167114257813</v>
       </c>
       <c r="G198" s="6" t="s">
         <v>140</v>
@@ -14052,7 +14053,7 @@
         <v>37.650001525878906</v>
       </c>
       <c r="S199" s="5">
-        <v>37.389999389648437</v>
+        <v>37.389999389648438</v>
       </c>
     </row>
     <row r="200" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -15629,7 +15630,7 @@
         <v>41.924999237060547</v>
       </c>
       <c r="S226" s="5">
-        <v>39.110000610351562</v>
+        <v>39.110000610351563</v>
       </c>
     </row>
     <row r="227" spans="1:19" s="4" customFormat="1" ht="12.75">
@@ -17041,7 +17042,7 @@
         <v>18.145000457763672</v>
       </c>
       <c r="S250" s="5">
-        <v>17.764999389648437</v>
+        <v>17.764999389648438</v>
       </c>
     </row>
     <row r="251" spans="1:19" s="4" customFormat="1" ht="12.75">
